--- a/target/database-insert-1.0-SNAPSHOT/WEB-INF/classes/sample_data.xlsx
+++ b/target/database-insert-1.0-SNAPSHOT/WEB-INF/classes/sample_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="689">
   <si>
     <t>Topic</t>
   </si>
@@ -39949,7 +39949,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Benefits</t>
+      <t>HR Administration</t>
     </r>
     <r>
       <rPr>
@@ -39975,39 +39975,15 @@
       </rPr>
       <t>Discrimination</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>HR Administration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Discrimination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hiring &amp; Staffing
+</t>
   </si>
 </sst>
 </file>
@@ -40438,8 +40414,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40785,7 +40761,7 @@
     </row>
     <row r="3" spans="1:55" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>662</v>
@@ -40952,7 +40928,7 @@
     </row>
     <row r="4" spans="1:55" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>664</v>
@@ -41286,7 +41262,7 @@
     </row>
     <row r="6" spans="1:55" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>668</v>
@@ -41620,7 +41596,7 @@
     </row>
     <row r="8" spans="1:55" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>672</v>
@@ -42288,7 +42264,7 @@
     </row>
     <row r="12" spans="1:55" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>680</v>
@@ -42455,7 +42431,7 @@
     </row>
     <row r="13" spans="1:55" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>682</v>
